--- a/biology/Biologie cellulaire et moléculaire/Viviane_Slon/Viviane_Slon.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Viviane_Slon/Viviane_Slon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Viviane Slon, née en 1984 à Villeurbanne (Rhône), est une paléogénéticienne française en poste à l'Institut Max-Planck d'anthropologie évolutionniste, à Leipzig, en Allemagne, dans l'équipe de Svante Pääbo[1],[2]. Elle a notamment montré qu'une adolescente née il y a environ 90 000 ans était une hybride de mère néandertalienne et de père dénisovien. Elle est sélectionnée en 2018 parmi les dix scientifiques de l'année par la revue britannique Nature[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Viviane Slon, née en 1984 à Villeurbanne (Rhône), est une paléogénéticienne française en poste à l'Institut Max-Planck d'anthropologie évolutionniste, à Leipzig, en Allemagne, dans l'équipe de Svante Pääbo,. Elle a notamment montré qu'une adolescente née il y a environ 90 000 ans était une hybride de mère néandertalienne et de père dénisovien. Elle est sélectionnée en 2018 parmi les dix scientifiques de l'année par la revue britannique Nature.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Formation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Viviane Slon termine ses études doctorales à l'Institut Max-Planck d'anthropologie évolutionniste[4]. Elle remporte le Prix Dan-David en 2017[5]. Elle travaille à la Faculté de Medecine Sackler (en) de l'université de Tel Aviv (en Israël) sur le plus ancien fossile d'Homo sapiens connu en dehors de l’Afrique[6],[7]. Elle étudie le crâne Qafzeh 9 (portant le nom de la grotte de Qafzeh où il a été trouvé), en examinant les malocclusions développementales[8].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Viviane Slon termine ses études doctorales à l'Institut Max-Planck d'anthropologie évolutionniste. Elle remporte le Prix Dan-David en 2017. Elle travaille à la Faculté de Medecine Sackler (en) de l'université de Tel Aviv (en Israël) sur le plus ancien fossile d'Homo sapiens connu en dehors de l’Afrique,. Elle étudie le crâne Qafzeh 9 (portant le nom de la grotte de Qafzeh où il a été trouvé), en examinant les malocclusions développementales.
 </t>
         </is>
       </c>
@@ -542,11 +556,13 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2018, Viviane Slon est nommée chercheur postdoctoral et travaille alors sur les Néandertaliens à l'Institut Max-Planck d'anthropologie évolutionniste[9]. Elle y développe des techniques pour extraire l'ADN humain des sédiments[10],[11],[12]. L'équipe de Svante Pääbo décode l'ensemble du génome de l'Homme de Denisova[13],[14]. Slon visite la grotte de Denisova lors d'un symposium, où plus d'un millier d'os sont trouvés chaque année[13].
-Le premier projet de Viviane Slon sur les vestiges de la grotte consiste à séquencer l'ADN d'une dent du quatrième individu de Denisova trouvé dans la Grotte de Denisova[15],[16]. Elle codirige une équipe qui trouve de l'ADN dénisovien dans les sédiments, une approche nouvelle qui ne dépend pas de la découverte d'ossements fossiles humains rares[3].
-En 2018, Slon et collègues publient un article sur le génome de Denny, un humain hybride[17]. L'ADN a été extrait d’un os humain trouvé dans une couche du Pléistocène supérieur[13],[18],[19]. Grâce à l'analyse génétique et à la datation au carbone 14, le spécimen est identifié comme une fille née il y a 90 000 ans d'une mère néandertalienne et d'un père dénisovien[13],[20],[21] Le travail est couvert par BBC News, National Geographic, EurekAlert, The Atlantic et Archéologie (magazine) (en)[22],[23],[24],[25],[26],[27].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2018, Viviane Slon est nommée chercheur postdoctoral et travaille alors sur les Néandertaliens à l'Institut Max-Planck d'anthropologie évolutionniste. Elle y développe des techniques pour extraire l'ADN humain des sédiments. L'équipe de Svante Pääbo décode l'ensemble du génome de l'Homme de Denisova,. Slon visite la grotte de Denisova lors d'un symposium, où plus d'un millier d'os sont trouvés chaque année.
+Le premier projet de Viviane Slon sur les vestiges de la grotte consiste à séquencer l'ADN d'une dent du quatrième individu de Denisova trouvé dans la Grotte de Denisova,. Elle codirige une équipe qui trouve de l'ADN dénisovien dans les sédiments, une approche nouvelle qui ne dépend pas de la découverte d'ossements fossiles humains rares.
+En 2018, Slon et collègues publient un article sur le génome de Denny, un humain hybride. L'ADN a été extrait d’un os humain trouvé dans une couche du Pléistocène supérieur. Grâce à l'analyse génétique et à la datation au carbone 14, le spécimen est identifié comme une fille née il y a 90 000 ans d'une mère néandertalienne et d'un père dénisovien Le travail est couvert par BBC News, National Geographic, EurekAlert, The Atlantic et Archéologie (magazine) (en).
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Viviane Slon est sélectionnée en 2018 parmi les dix scientifiques de l'année par la revue britannique Nature[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Viviane Slon est sélectionnée en 2018 parmi les dix scientifiques de l'année par la revue britannique Nature.
 </t>
         </is>
       </c>
